--- a/src/test/resources/invalidCSV/input/instructions.xlsx
+++ b/src/test/resources/invalidCSV/input/instructions.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AX$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AY$4</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
   <si>
     <t>DATASET</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>invalid-user</t>
+  </si>
+  <si>
+    <t>DC_IDENTIFIER_TYPE</t>
+  </si>
+  <si>
+    <t>UNKNOWN_IDENTIFIER_TYPE</t>
   </si>
 </sst>
 </file>
@@ -868,13 +874,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AZ4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY1" sqref="AY1:AY3"/>
+      <selection pane="bottomRight" activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -910,28 +916,29 @@
     <col min="30" max="30" width="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="47.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="47.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1025,68 +1032,71 @@
       <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AY1" s="20" t="s">
+      <c r="AZ1" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1164,56 +1174,57 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AO2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AO2" s="8">
+      <c r="AP2" s="8">
         <v>33815</v>
       </c>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11" t="s">
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11" t="s">
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AU2" s="11" t="s">
+      <c r="AV2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="7"/>
+      <c r="AW2" s="11"/>
       <c r="AX2" s="7"/>
-      <c r="AY2" s="21" t="s">
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
@@ -1277,46 +1288,49 @@
       <c r="AE3" s="13">
         <v>4</v>
       </c>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13" t="s">
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
-      <c r="AK3" s="13" t="s">
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AM3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="15" t="s">
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AO3" s="15" t="s">
+      <c r="AP3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AQ3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AQ3" s="16"/>
       <c r="AR3" s="16"/>
       <c r="AS3" s="16"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15" t="s">
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="AW3" s="13"/>
       <c r="AX3" s="13"/>
-      <c r="AY3" s="22" t="s">
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
@@ -1356,34 +1370,35 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
       <c r="AH4" s="13"/>
-      <c r="AI4" s="19" t="s">
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13" t="s">
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AL4" s="13"/>
       <c r="AM4" s="13"/>
-      <c r="AN4" s="15"/>
+      <c r="AN4" s="13"/>
       <c r="AO4" s="15"/>
       <c r="AP4" s="15"/>
       <c r="AQ4" s="15"/>
       <c r="AR4" s="15"/>
       <c r="AS4" s="15"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="13"/>
       <c r="AV4" s="15"/>
-      <c r="AW4" s="13"/>
+      <c r="AW4" s="15"/>
       <c r="AX4" s="13"/>
-      <c r="AY4" s="17"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AI4" r:id="rId1"/>
+    <hyperlink ref="AJ4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/src/test/resources/invalidCSV/input/instructions.xlsx
+++ b/src/test/resources/invalidCSV/input/instructions.xlsx
@@ -350,9 +350,6 @@
     <t>other#domain</t>
   </si>
   <si>
-    <t>ruimtereis01/path/to/audiofile/that/does/not/exist.mp3</t>
-  </si>
-  <si>
     <t>file title without file path</t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>UNKNOWN_IDENTIFIER_TYPE</t>
+  </si>
+  <si>
+    <t>path/to/audiofile/that/does/not/exist.mp3</t>
   </si>
 </sst>
 </file>
@@ -877,10 +877,10 @@
   <dimension ref="A1:AZ4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomRight" activeCell="AV3" sqref="AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1036,7 @@
         <v>31</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>32</v>
@@ -1215,7 +1215,7 @@
         <v>102</v>
       </c>
       <c r="AV2" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AW2" s="11"/>
       <c r="AX2" s="7"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH3" s="13" t="s">
         <v>87</v>
@@ -1322,12 +1322,12 @@
       <c r="AU3" s="13"/>
       <c r="AV3" s="15"/>
       <c r="AW3" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AX3" s="13"/>
       <c r="AY3" s="13"/>
       <c r="AZ3" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/src/test/resources/invalidCSV/input/instructions.xlsx
+++ b/src/test/resources/invalidCSV/input/instructions.xlsx
@@ -1,27 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RichardvanHeest/git/service/easy/easy-split-multi-deposit/src/test/resources/invalidCSV/input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38640" windowHeight="21840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AY$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$4</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
   <si>
     <t>DATASET</t>
   </si>
@@ -363,6 +355,9 @@
   </si>
   <si>
     <t>path/to/audiofile/that/does/not/exist.mp3</t>
+  </si>
+  <si>
+    <t>SF_PLAY_MODE</t>
   </si>
 </sst>
 </file>
@@ -595,11 +590,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -866,7 +861,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -874,71 +869,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ4"/>
+  <dimension ref="A1:BA4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV3" sqref="AV3"/>
+      <selection pane="bottomRight" activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.875" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="14" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="65.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="47.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.875" customWidth="1"/>
+    <col min="49" max="49" width="47.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1080,23 +1076,26 @@
       <c r="AU1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="20" t="s">
+      <c r="BA1" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1214,17 +1213,18 @@
       <c r="AU2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AV2" s="11" t="s">
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="7"/>
+      <c r="AX2" s="11"/>
       <c r="AY2" s="7"/>
-      <c r="AZ2" s="21" t="s">
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
@@ -1320,17 +1320,18 @@
       <c r="AS3" s="16"/>
       <c r="AT3" s="16"/>
       <c r="AU3" s="13"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15" t="s">
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="AX3" s="13"/>
       <c r="AY3" s="13"/>
-      <c r="AZ3" s="22" t="s">
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
@@ -1390,17 +1391,18 @@
       <c r="AS4" s="15"/>
       <c r="AT4" s="15"/>
       <c r="AU4" s="13"/>
-      <c r="AV4" s="15"/>
+      <c r="AV4" s="13"/>
       <c r="AW4" s="15"/>
-      <c r="AX4" s="13"/>
+      <c r="AX4" s="15"/>
       <c r="AY4" s="13"/>
-      <c r="AZ4" s="17"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AJ4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/invalidCSV/input/instructions.xlsx
+++ b/src/test/resources/invalidCSV/input/instructions.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RichardvanHeest/git/service/easy/easy-split-multi-deposit/src/test/resources/invalidCSV/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38640" windowHeight="21840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BB$4</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
   <si>
     <t>DATASET</t>
   </si>
@@ -358,6 +366,27 @@
   </si>
   <si>
     <t>SF_PLAY_MODE</t>
+  </si>
+  <si>
+    <t>DCT_DATE</t>
+  </si>
+  <si>
+    <t>DCT_DATE_QUALIFIER</t>
+  </si>
+  <si>
+    <t>Text with Qualifier</t>
+  </si>
+  <si>
+    <t>ISSUED</t>
+  </si>
+  <si>
+    <t>30-07-1992</t>
+  </si>
+  <si>
+    <t>vAlId</t>
+  </si>
+  <si>
+    <t>modiFied</t>
   </si>
 </sst>
 </file>
@@ -367,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -412,6 +441,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -553,14 +589,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -588,13 +627,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -861,7 +908,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -869,72 +916,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA4"/>
+  <dimension ref="A1:BC4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV1" sqref="AV1"/>
+      <selection pane="bottomRight" activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="14" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="65.625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.875" customWidth="1"/>
-    <col min="49" max="49" width="47.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="29.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="23" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.1640625" customWidth="1"/>
+    <col min="38" max="38" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.83203125" customWidth="1"/>
+    <col min="51" max="51" width="47.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1043,59 +1092,65 @@
       <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BA1" s="20" t="s">
+      <c r="BC1" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1184,47 +1239,53 @@
         <v>88</v>
       </c>
       <c r="AJ2" s="10"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AQ2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AP2" s="8">
+      <c r="AR2" s="8">
         <v>33815</v>
-      </c>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="AS2" s="11"/>
       <c r="AT2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AW2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="11" t="s">
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="21" t="s">
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
@@ -1299,39 +1360,43 @@
         <v>89</v>
       </c>
       <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13" t="s">
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" s="13" t="s">
+      <c r="AO3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="15" t="s">
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AR3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AQ3" s="15" t="s">
+      <c r="AS3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
       <c r="AT3" s="16"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15" t="s">
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="22" t="s">
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
@@ -1378,25 +1443,31 @@
       <c r="AJ4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13" t="s">
+      <c r="AK4" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
       <c r="AQ4" s="15"/>
       <c r="AR4" s="15"/>
       <c r="AS4" s="15"/>
       <c r="AT4" s="15"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="17"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/invalidCSV/input/instructions.xlsx
+++ b/src/test/resources/invalidCSV/input/instructions.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BC$4</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -317,76 +317,76 @@
     <t>degrees</t>
   </si>
   <si>
-    <t>SF_ACCESSIBILITY</t>
-  </si>
-  <si>
     <t>GROUP_ACCESS</t>
   </si>
   <si>
+    <t>AV_SUBTITLES</t>
+  </si>
+  <si>
+    <t>application/vnd.openxmlformats-officedocument.wordprocessingml.document</t>
+  </si>
+  <si>
+    <t>AV_SUBTITLES_LANGUAGE</t>
+  </si>
+  <si>
+    <t>invalid-date</t>
+  </si>
+  <si>
+    <t>other collection</t>
+  </si>
+  <si>
+    <t>other#domain</t>
+  </si>
+  <si>
+    <t>file title without file path</t>
+  </si>
+  <si>
+    <t>invalid-user</t>
+  </si>
+  <si>
+    <t>DC_IDENTIFIER_TYPE</t>
+  </si>
+  <si>
+    <t>UNKNOWN_IDENTIFIER_TYPE</t>
+  </si>
+  <si>
+    <t>path/to/audiofile/that/does/not/exist.mp3</t>
+  </si>
+  <si>
+    <t>SF_PLAY_MODE</t>
+  </si>
+  <si>
+    <t>DCT_DATE</t>
+  </si>
+  <si>
+    <t>DCT_DATE_QUALIFIER</t>
+  </si>
+  <si>
+    <t>Text with Qualifier</t>
+  </si>
+  <si>
+    <t>ISSUED</t>
+  </si>
+  <si>
+    <t>30-07-1992</t>
+  </si>
+  <si>
+    <t>vAlId</t>
+  </si>
+  <si>
+    <t>modiFied</t>
+  </si>
+  <si>
+    <t>FILE_PATH</t>
+  </si>
+  <si>
+    <t>FILE_TITLE</t>
+  </si>
+  <si>
+    <t>FILE_ACCESSIBILITY</t>
+  </si>
+  <si>
     <t>AV_FILE</t>
-  </si>
-  <si>
-    <t>AV_SUBTITLES</t>
-  </si>
-  <si>
-    <t>AV_FILE_TITLE</t>
-  </si>
-  <si>
-    <t>application/vnd.openxmlformats-officedocument.wordprocessingml.document</t>
-  </si>
-  <si>
-    <t>AV_SUBTITLES_LANGUAGE</t>
-  </si>
-  <si>
-    <t>RESTRICTED_GROUP</t>
-  </si>
-  <si>
-    <t>invalid-date</t>
-  </si>
-  <si>
-    <t>other collection</t>
-  </si>
-  <si>
-    <t>other#domain</t>
-  </si>
-  <si>
-    <t>file title without file path</t>
-  </si>
-  <si>
-    <t>invalid-user</t>
-  </si>
-  <si>
-    <t>DC_IDENTIFIER_TYPE</t>
-  </si>
-  <si>
-    <t>UNKNOWN_IDENTIFIER_TYPE</t>
-  </si>
-  <si>
-    <t>path/to/audiofile/that/does/not/exist.mp3</t>
-  </si>
-  <si>
-    <t>SF_PLAY_MODE</t>
-  </si>
-  <si>
-    <t>DCT_DATE</t>
-  </si>
-  <si>
-    <t>DCT_DATE_QUALIFIER</t>
-  </si>
-  <si>
-    <t>Text with Qualifier</t>
-  </si>
-  <si>
-    <t>ISSUED</t>
-  </si>
-  <si>
-    <t>30-07-1992</t>
-  </si>
-  <si>
-    <t>vAlId</t>
-  </si>
-  <si>
-    <t>modiFied</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,6 +448,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -589,7 +595,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -598,8 +604,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -632,14 +647,27 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -916,13 +944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC4"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL4" sqref="AL4"/>
+      <selection pane="bottomRight" activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,19 +999,20 @@
     <col min="43" max="43" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.83203125" customWidth="1"/>
-    <col min="51" max="51" width="47.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="23" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.83203125" customWidth="1"/>
+    <col min="53" max="53" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1110,7 @@
         <v>31</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>32</v>
@@ -1093,10 +1122,10 @@
         <v>34</v>
       </c>
       <c r="AK1" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AM1" s="4" t="s">
         <v>35</v>
@@ -1120,37 +1149,40 @@
         <v>41</v>
       </c>
       <c r="AT1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV1" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AW1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="BB1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC1" s="20" t="s">
+      <c r="BD1" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1191,7 +1223,7 @@
         <v>77</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>78</v>
@@ -1240,10 +1272,10 @@
       </c>
       <c r="AJ2" s="10"/>
       <c r="AK2" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AL2" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AM2" s="7" t="s">
         <v>91</v>
@@ -1265,27 +1297,26 @@
       </c>
       <c r="AS2" s="11"/>
       <c r="AT2" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AU2" s="11"/>
-      <c r="AV2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX2" s="11"/>
       <c r="AY2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="29"/>
       <c r="BB2" s="7"/>
-      <c r="BC2" s="21" t="s">
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
@@ -1351,7 +1382,7 @@
       </c>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH3" s="13" t="s">
         <v>87</v>
@@ -1362,7 +1393,7 @@
       <c r="AJ3" s="13"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AM3" s="13"/>
       <c r="AN3" s="13" t="s">
@@ -1373,30 +1404,31 @@
       </c>
       <c r="AP3" s="13"/>
       <c r="AQ3" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR3" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AS3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA3" s="13"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="30"/>
       <c r="BB3" s="13"/>
-      <c r="BC3" s="22" t="s">
-        <v>107</v>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="22" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
@@ -1444,14 +1476,14 @@
         <v>90</v>
       </c>
       <c r="AK4" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL4" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AM4" s="13"/>
       <c r="AN4" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AO4" s="13"/>
       <c r="AP4" s="13"/>
@@ -1460,14 +1492,15 @@
       <c r="AS4" s="15"/>
       <c r="AT4" s="15"/>
       <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
+      <c r="AV4" s="30"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
       <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="30"/>
       <c r="BB4" s="13"/>
-      <c r="BC4" s="17"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/invalidCSV/input/instructions.xlsx
+++ b/src/test/resources/invalidCSV/input/instructions.xlsx
@@ -386,7 +386,7 @@
     <t>FILE_ACCESSIBILITY</t>
   </si>
   <si>
-    <t>AV_FILE</t>
+    <t>AV_FILE_PATH</t>
   </si>
 </sst>
 </file>
@@ -950,7 +950,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA1" sqref="BA1"/>
+      <selection pane="bottomRight" activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1006,7 @@
     <col min="50" max="50" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="17.83203125" customWidth="1"/>
-    <col min="53" max="53" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="23" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="13.1640625" bestFit="1" customWidth="1"/>

--- a/src/test/resources/invalidCSV/input/instructions.xlsx
+++ b/src/test/resources/invalidCSV/input/instructions.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BC$4</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -317,30 +317,18 @@
     <t>degrees</t>
   </si>
   <si>
-    <t>SF_ACCESSIBILITY</t>
-  </si>
-  <si>
     <t>GROUP_ACCESS</t>
   </si>
   <si>
-    <t>AV_FILE</t>
-  </si>
-  <si>
     <t>AV_SUBTITLES</t>
   </si>
   <si>
-    <t>AV_FILE_TITLE</t>
-  </si>
-  <si>
     <t>application/vnd.openxmlformats-officedocument.wordprocessingml.document</t>
   </si>
   <si>
     <t>AV_SUBTITLES_LANGUAGE</t>
   </si>
   <si>
-    <t>RESTRICTED_GROUP</t>
-  </si>
-  <si>
     <t>invalid-date</t>
   </si>
   <si>
@@ -387,6 +375,18 @@
   </si>
   <si>
     <t>modiFied</t>
+  </si>
+  <si>
+    <t>FILE_PATH</t>
+  </si>
+  <si>
+    <t>FILE_TITLE</t>
+  </si>
+  <si>
+    <t>FILE_ACCESSIBILITY</t>
+  </si>
+  <si>
+    <t>AV_FILE_PATH</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,6 +448,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -589,7 +595,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -598,8 +604,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -632,14 +647,27 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -916,13 +944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC4"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL4" sqref="AL4"/>
+      <selection pane="bottomRight" activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,19 +999,20 @@
     <col min="43" max="43" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.83203125" customWidth="1"/>
-    <col min="51" max="51" width="47.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="23" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.83203125" customWidth="1"/>
+    <col min="53" max="53" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1110,7 @@
         <v>31</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>32</v>
@@ -1093,10 +1122,10 @@
         <v>34</v>
       </c>
       <c r="AK1" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AM1" s="4" t="s">
         <v>35</v>
@@ -1120,37 +1149,40 @@
         <v>41</v>
       </c>
       <c r="AT1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV1" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AW1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="BB1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC1" s="20" t="s">
+      <c r="BD1" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1191,7 +1223,7 @@
         <v>77</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>78</v>
@@ -1240,10 +1272,10 @@
       </c>
       <c r="AJ2" s="10"/>
       <c r="AK2" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AL2" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AM2" s="7" t="s">
         <v>91</v>
@@ -1265,27 +1297,26 @@
       </c>
       <c r="AS2" s="11"/>
       <c r="AT2" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AU2" s="11"/>
-      <c r="AV2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX2" s="11"/>
       <c r="AY2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="29"/>
       <c r="BB2" s="7"/>
-      <c r="BC2" s="21" t="s">
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
@@ -1351,7 +1382,7 @@
       </c>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH3" s="13" t="s">
         <v>87</v>
@@ -1362,7 +1393,7 @@
       <c r="AJ3" s="13"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AM3" s="13"/>
       <c r="AN3" s="13" t="s">
@@ -1373,30 +1404,31 @@
       </c>
       <c r="AP3" s="13"/>
       <c r="AQ3" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR3" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AS3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA3" s="13"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="30"/>
       <c r="BB3" s="13"/>
-      <c r="BC3" s="22" t="s">
-        <v>107</v>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="22" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
@@ -1444,14 +1476,14 @@
         <v>90</v>
       </c>
       <c r="AK4" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL4" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AM4" s="13"/>
       <c r="AN4" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AO4" s="13"/>
       <c r="AP4" s="13"/>
@@ -1460,14 +1492,15 @@
       <c r="AS4" s="15"/>
       <c r="AT4" s="15"/>
       <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
+      <c r="AV4" s="30"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
       <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="30"/>
       <c r="BB4" s="13"/>
-      <c r="BC4" s="17"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/invalidCSV/input/instructions.xlsx
+++ b/src/test/resources/invalidCSV/input/instructions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RichardvanHeest/git/service/easy/easy-split-multi-deposit/src/test/resources/invalidCSV/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gulcinermis/git/service/easy/easy-split-multi-deposit/src/test/resources/invalidCSV/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B918A01F-3A63-8641-85F5-2E1AA24FBA6E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BC$4</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>DATASET</t>
   </si>
@@ -387,16 +388,22 @@
   </si>
   <si>
     <t>AV_FILE_PATH</t>
+  </si>
+  <si>
+    <t>1de3f841-048b-b3db-4b03ad4834d7</t>
+  </si>
+  <si>
+    <t>BASE_REVISION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -454,6 +461,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -469,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -591,6 +612,17 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,7 +646,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -651,6 +683,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -676,6 +710,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -943,14 +980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA2" sqref="BA2"/>
+      <selection pane="bottomRight" activeCell="BE1" sqref="BE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,9 +1047,10 @@
     <col min="54" max="54" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="23" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1181,8 +1219,11 @@
       <c r="BD1" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="BE1" s="33" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1315,8 +1356,11 @@
       <c r="BD2" s="21" t="s">
         <v>70</v>
       </c>
+      <c r="BE2" s="32" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
@@ -1428,7 +1472,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
@@ -1504,7 +1548,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AJ4" r:id="rId1"/>
+    <hyperlink ref="AJ4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/src/test/resources/invalidCSV/input/instructions.xlsx
+++ b/src/test/resources/invalidCSV/input/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gulcinermis/git/service/easy/easy-split-multi-deposit/src/test/resources/invalidCSV/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RichardvanHeest/git/service/easy/easy-split-multi-deposit/src/test/resources/invalidCSV/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B918A01F-3A63-8641-85F5-2E1AA24FBA6E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34555CB-5A2A-3C4F-AE44-D3917123B87A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
   <si>
     <t>DATASET</t>
   </si>
@@ -265,15 +265,6 @@
   </si>
   <si>
     <t>Gallië</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>eko</t>
-  </si>
-  <si>
-    <t>linda</t>
   </si>
   <si>
     <t>knaw</t>
@@ -984,10 +975,10 @@
   <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AV2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE1" sqref="BE1"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1090,7 @@
       <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
@@ -1148,7 +1139,7 @@
         <v>31</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>32</v>
@@ -1160,10 +1151,10 @@
         <v>34</v>
       </c>
       <c r="AK1" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AM1" s="4" t="s">
         <v>35</v>
@@ -1187,13 +1178,13 @@
         <v>41</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AV1" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AW1" s="5" t="s">
         <v>66</v>
@@ -1205,22 +1196,22 @@
         <v>68</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="BA1" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="BD1" s="20" t="s">
         <v>42</v>
       </c>
       <c r="BE1" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:57" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1258,17 +1249,15 @@
         <v>74</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="Q2" s="11"/>
       <c r="R2" s="7" t="s">
         <v>69</v>
       </c>
@@ -1286,10 +1275,10 @@
         <v>65</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Z2" s="7">
         <v>83575.399999999994</v>
@@ -1302,24 +1291,24 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AG2" s="8"/>
       <c r="AH2" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AJ2" s="10"/>
       <c r="AK2" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AL2" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AN2" s="7" t="s">
         <v>59</v>
@@ -1328,7 +1317,7 @@
         <v>61</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AQ2" s="11" t="s">
         <v>53</v>
@@ -1338,16 +1327,16 @@
       </c>
       <c r="AS2" s="11"/>
       <c r="AT2" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AU2" s="11"/>
       <c r="AV2" s="7"/>
       <c r="AW2" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AX2" s="11"/>
       <c r="AY2" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AZ2" s="7"/>
       <c r="BA2" s="29"/>
@@ -1357,7 +1346,7 @@
         <v>70</v>
       </c>
       <c r="BE2" s="32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
@@ -1387,11 +1376,9 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="Q3" s="15"/>
       <c r="R3" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S3" s="13" t="s">
         <v>51</v>
@@ -1405,10 +1392,10 @@
       </c>
       <c r="W3" s="13"/>
       <c r="X3" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
@@ -1426,18 +1413,18 @@
       </c>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AH3" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AI3" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AM3" s="13"/>
       <c r="AN3" s="13" t="s">
@@ -1448,17 +1435,17 @@
       </c>
       <c r="AP3" s="13"/>
       <c r="AQ3" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AR3" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AS3" s="15" t="s">
         <v>52</v>
       </c>
       <c r="AT3" s="15"/>
       <c r="AU3" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AV3" s="30"/>
       <c r="AW3" s="16"/>
@@ -1469,7 +1456,7 @@
       <c r="BB3" s="13"/>
       <c r="BC3" s="13"/>
       <c r="BD3" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1491,9 +1478,7 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="Q4" s="15"/>
       <c r="R4" s="13"/>
       <c r="S4" s="18"/>
       <c r="T4" s="13" t="s">
@@ -1517,17 +1502,17 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AK4" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AL4" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AM4" s="13"/>
       <c r="AN4" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AO4" s="13"/>
       <c r="AP4" s="13"/>

--- a/src/test/resources/invalidCSV/input/instructions.xlsx
+++ b/src/test/resources/invalidCSV/input/instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RichardvanHeest/git/service/easy/easy-split-multi-deposit/src/test/resources/invalidCSV/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34555CB-5A2A-3C4F-AE44-D3917123B87A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4034159-4C68-924F-BB09-4D7C8CBF021D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
   <si>
     <t>DATASET</t>
   </si>
@@ -294,97 +294,100 @@
     <t>blabla</t>
   </si>
   <si>
+    <t>random test data</t>
+  </si>
+  <si>
+    <t>whatever</t>
+  </si>
+  <si>
+    <t>info:eu-repo/dai/nl/123456789X</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>GROUP_ACCESS</t>
+  </si>
+  <si>
+    <t>AV_SUBTITLES</t>
+  </si>
+  <si>
+    <t>application/vnd.openxmlformats-officedocument.wordprocessingml.document</t>
+  </si>
+  <si>
+    <t>AV_SUBTITLES_LANGUAGE</t>
+  </si>
+  <si>
+    <t>invalid-date</t>
+  </si>
+  <si>
+    <t>other collection</t>
+  </si>
+  <si>
+    <t>other#domain</t>
+  </si>
+  <si>
+    <t>file title without file path</t>
+  </si>
+  <si>
+    <t>invalid-user</t>
+  </si>
+  <si>
+    <t>DC_IDENTIFIER_TYPE</t>
+  </si>
+  <si>
+    <t>UNKNOWN_IDENTIFIER_TYPE</t>
+  </si>
+  <si>
+    <t>path/to/audiofile/that/does/not/exist.mp3</t>
+  </si>
+  <si>
+    <t>SF_PLAY_MODE</t>
+  </si>
+  <si>
+    <t>DCT_DATE</t>
+  </si>
+  <si>
+    <t>DCT_DATE_QUALIFIER</t>
+  </si>
+  <si>
+    <t>Text with Qualifier</t>
+  </si>
+  <si>
+    <t>ISSUED</t>
+  </si>
+  <si>
+    <t>30-07-1992</t>
+  </si>
+  <si>
+    <t>vAlId</t>
+  </si>
+  <si>
+    <t>modiFied</t>
+  </si>
+  <si>
+    <t>FILE_PATH</t>
+  </si>
+  <si>
+    <t>FILE_TITLE</t>
+  </si>
+  <si>
+    <t>FILE_ACCESSIBILITY</t>
+  </si>
+  <si>
+    <t>AV_FILE_PATH</t>
+  </si>
+  <si>
+    <t>1de3f841-048b-b3db-4b03ad4834d7</t>
+  </si>
+  <si>
+    <t>BASE_REVISION</t>
+  </si>
+  <si>
+    <t>invalid url</t>
+  </si>
+  <si>
     <t>http://x</t>
-  </si>
-  <si>
-    <t>random test data</t>
-  </si>
-  <si>
-    <t>whatever</t>
-  </si>
-  <si>
-    <t>info:eu-repo/dai/nl/123456789X</t>
-  </si>
-  <si>
-    <t>degrees</t>
-  </si>
-  <si>
-    <t>GROUP_ACCESS</t>
-  </si>
-  <si>
-    <t>AV_SUBTITLES</t>
-  </si>
-  <si>
-    <t>application/vnd.openxmlformats-officedocument.wordprocessingml.document</t>
-  </si>
-  <si>
-    <t>AV_SUBTITLES_LANGUAGE</t>
-  </si>
-  <si>
-    <t>invalid-date</t>
-  </si>
-  <si>
-    <t>other collection</t>
-  </si>
-  <si>
-    <t>other#domain</t>
-  </si>
-  <si>
-    <t>file title without file path</t>
-  </si>
-  <si>
-    <t>invalid-user</t>
-  </si>
-  <si>
-    <t>DC_IDENTIFIER_TYPE</t>
-  </si>
-  <si>
-    <t>UNKNOWN_IDENTIFIER_TYPE</t>
-  </si>
-  <si>
-    <t>path/to/audiofile/that/does/not/exist.mp3</t>
-  </si>
-  <si>
-    <t>SF_PLAY_MODE</t>
-  </si>
-  <si>
-    <t>DCT_DATE</t>
-  </si>
-  <si>
-    <t>DCT_DATE_QUALIFIER</t>
-  </si>
-  <si>
-    <t>Text with Qualifier</t>
-  </si>
-  <si>
-    <t>ISSUED</t>
-  </si>
-  <si>
-    <t>30-07-1992</t>
-  </si>
-  <si>
-    <t>vAlId</t>
-  </si>
-  <si>
-    <t>modiFied</t>
-  </si>
-  <si>
-    <t>FILE_PATH</t>
-  </si>
-  <si>
-    <t>FILE_TITLE</t>
-  </si>
-  <si>
-    <t>FILE_ACCESSIBILITY</t>
-  </si>
-  <si>
-    <t>AV_FILE_PATH</t>
-  </si>
-  <si>
-    <t>1de3f841-048b-b3db-4b03ad4834d7</t>
-  </si>
-  <si>
-    <t>BASE_REVISION</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -661,7 +663,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -676,6 +677,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -975,10 +978,10 @@
   <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,7 +1142,7 @@
         <v>31</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>32</v>
@@ -1147,14 +1150,14 @@
       <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AK1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="AM1" s="4" t="s">
         <v>35</v>
@@ -1178,13 +1181,13 @@
         <v>41</v>
       </c>
       <c r="AT1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="29" t="s">
         <v>113</v>
-      </c>
-      <c r="AV1" s="31" t="s">
-        <v>114</v>
       </c>
       <c r="AW1" s="5" t="s">
         <v>66</v>
@@ -1196,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA1" s="28" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="BA1" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="33" t="s">
-        <v>117</v>
+      <c r="BE1" s="31" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:57" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1249,15 +1252,15 @@
         <v>74</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="Q2" s="10"/>
       <c r="R2" s="7" t="s">
         <v>69</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>79</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="7">
         <v>83575.399999999994</v>
@@ -1290,7 +1293,7 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="10" t="s">
         <v>82</v>
       </c>
       <c r="AG2" s="8"/>
@@ -1300,15 +1303,15 @@
       <c r="AI2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="24" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL2" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="AL2" s="24" t="s">
-        <v>108</v>
-      </c>
       <c r="AM2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN2" s="7" t="s">
         <v>59</v>
@@ -1317,223 +1320,225 @@
         <v>61</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AR2" s="8">
         <v>33815</v>
       </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU2" s="11"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" s="10"/>
       <c r="AV2" s="7"/>
-      <c r="AW2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11" t="s">
+      <c r="AW2" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="AZ2" s="7"/>
-      <c r="BA2" s="29"/>
+      <c r="BA2" s="27"/>
       <c r="BB2" s="7"/>
       <c r="BC2" s="7"/>
-      <c r="BD2" s="21" t="s">
+      <c r="BD2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="BE2" s="32" t="s">
-        <v>116</v>
+      <c r="BE2" s="30" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="13" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13" t="s">
+      <c r="U3" s="12"/>
+      <c r="V3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13" t="s">
+      <c r="W3" s="12"/>
+      <c r="X3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13">
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12">
         <v>1</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3" s="12">
         <v>2</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AD3" s="12">
         <v>3</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AE3" s="12">
         <v>4</v>
       </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AI3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13" t="s">
+      <c r="AJ3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AO3" s="13" t="s">
+      <c r="AO3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR3" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS3" s="15" t="s">
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15" t="s">
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="13" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK4" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL4" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="30"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="30"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="17"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK4" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AJ4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AJ4" r:id="rId1" xr:uid="{16565EFF-CBEA-AF44-9A5A-AA03399A8B52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/src/test/resources/invalidCSV/input/instructions.xlsx
+++ b/src/test/resources/invalidCSV/input/instructions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RichardvanHeest/git/service/easy/easy-split-multi-deposit/src/test/resources/invalidCSV/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vesaakerman/git/service/easy/easy-split-multi-deposit/src/test/resources/invalidCSV/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4034159-4C68-924F-BB09-4D7C8CBF021D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C0D300-9E59-464E-B823-67F4D461B37B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26260" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BC$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BD$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
   <si>
     <t>DATASET</t>
   </si>
@@ -273,9 +273,6 @@
     <t>here</t>
   </si>
   <si>
-    <t>there</t>
-  </si>
-  <si>
     <t>RD</t>
   </si>
   <si>
@@ -388,6 +385,21 @@
   </si>
   <si>
     <t>http://x</t>
+  </si>
+  <si>
+    <t>DCT_SPATIAL_SCHEME</t>
+  </si>
+  <si>
+    <t>dcterms:ISO3177</t>
+  </si>
+  <si>
+    <t>dcterms:ISO3166</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>XYZ</t>
   </si>
 </sst>
 </file>
@@ -397,7 +409,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -469,6 +481,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -640,7 +658,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -679,6 +697,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -975,13 +994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE4"/>
+  <dimension ref="A1:BF4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ5" sqref="AJ5"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,42 +1028,43 @@
     <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.1640625" customWidth="1"/>
-    <col min="38" max="38" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="36.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.83203125" customWidth="1"/>
-    <col min="53" max="53" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="23" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="31.83203125" customWidth="1"/>
+    <col min="24" max="24" width="22.33203125" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.1640625" customWidth="1"/>
+    <col min="39" max="39" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="36.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.83203125" customWidth="1"/>
+    <col min="54" max="54" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1114,110 +1134,113 @@
       <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AL1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="AV1" s="29" t="s">
+      <c r="AX1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA1" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="BC1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="31" t="s">
-        <v>116</v>
+      <c r="BF1" s="31" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:57" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1252,13 +1275,13 @@
         <v>74</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="7" t="s">
@@ -1277,82 +1300,83 @@
       <c r="W2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z2" s="7">
+      <c r="Z2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="7">
         <v>83575.399999999994</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AB2" s="7">
         <v>455271.2</v>
       </c>
-      <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="22" t="s">
+      <c r="AJ2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="AL2" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AN2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AR2" s="8">
+      <c r="AS2" s="8">
         <v>33815</v>
       </c>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10" t="s">
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="7"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="27"/>
       <c r="BC2" s="7"/>
-      <c r="BD2" s="19" t="s">
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="BE2" s="30" t="s">
-        <v>115</v>
+      <c r="BF2" s="30" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
@@ -1394,77 +1418,80 @@
         <v>64</v>
       </c>
       <c r="W3" s="12"/>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
-      <c r="AB3" s="12">
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12">
         <v>1</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AD3" s="12">
         <v>2</v>
       </c>
-      <c r="AD3" s="12">
+      <c r="AE3" s="12">
         <v>3</v>
       </c>
-      <c r="AE3" s="12">
+      <c r="AF3" s="12">
         <v>4</v>
       </c>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>84</v>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AP3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="AQ3" s="12"/>
       <c r="AR3" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AS3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="15"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW3" s="28"/>
       <c r="AX3" s="15"/>
       <c r="AY3" s="15"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="12"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="28"/>
       <c r="BC3" s="12"/>
-      <c r="BD3" s="20" t="s">
-        <v>99</v>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="20" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
@@ -1494,51 +1521,56 @@
       </c>
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
+      <c r="X4" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
-      <c r="AF4" s="14"/>
+      <c r="AF4" s="12"/>
       <c r="AG4" s="14"/>
-      <c r="AH4" s="12"/>
+      <c r="AH4" s="14"/>
       <c r="AI4" s="12"/>
-      <c r="AJ4" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK4" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL4" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL4" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM4" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="AP4" s="12"/>
-      <c r="AQ4" s="14"/>
+      <c r="AQ4" s="12"/>
       <c r="AR4" s="14"/>
       <c r="AS4" s="14"/>
       <c r="AT4" s="14"/>
       <c r="AU4" s="14"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="28"/>
       <c r="AX4" s="14"/>
       <c r="AY4" s="14"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="12"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="28"/>
       <c r="BC4" s="12"/>
-      <c r="BD4" s="16"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AJ4" r:id="rId1" xr:uid="{16565EFF-CBEA-AF44-9A5A-AA03399A8B52}"/>
+    <hyperlink ref="AK4" r:id="rId1" xr:uid="{16565EFF-CBEA-AF44-9A5A-AA03399A8B52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
